--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -54,7 +54,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com</t>
+    <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>9</v>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -51,10 +51,10 @@
     <t>Receiver</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -51,10 +51,10 @@
     <t>Receiver</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -54,7 +54,7 @@
     <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -51,10 +51,10 @@
     <t>Receiver</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -54,7 +54,7 @@
     <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -54,7 +54,7 @@
     <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -54,7 +54,7 @@
     <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -54,7 +54,7 @@
     <t>balaji.rn@trackdfect.com,prabhakaran.s@trackdfect.com,prabhakaran@zoftsolutions.com</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataFiles/config.xlsx
+++ b/dataFiles/config.xlsx
@@ -616,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
